--- a/src/test/java/ApachePOI/resource/Formula.xlsx
+++ b/src/test/java/ApachePOI/resource/Formula.xlsx
@@ -72,7 +72,7 @@
         <v>30.0</v>
       </c>
       <c r="D1" t="n">
-        <f>A1*B1*C1</f>
+        <f>(A1*B1*C1)/3</f>
         <v>0.0</v>
       </c>
     </row>
